--- a/data/pca/factorExposure/factorExposure_2012-09-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-06.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002347133467818837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001820259602138985</v>
+      </c>
+      <c r="C2">
+        <v>0.02898583415261714</v>
+      </c>
+      <c r="D2">
+        <v>0.004883864651450052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0004514627746843299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006925265585732562</v>
+      </c>
+      <c r="C4">
+        <v>0.08389388485537491</v>
+      </c>
+      <c r="D4">
+        <v>0.06859074466084823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005530865645711563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01479553500516017</v>
+      </c>
+      <c r="C6">
+        <v>0.118608543782526</v>
+      </c>
+      <c r="D6">
+        <v>0.02087703306523769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0008887772021903817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004925078633651224</v>
+      </c>
+      <c r="C7">
+        <v>0.05962286716046772</v>
+      </c>
+      <c r="D7">
+        <v>0.03247304721609962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001869514665431124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006004003518693655</v>
+      </c>
+      <c r="C8">
+        <v>0.03634752346409725</v>
+      </c>
+      <c r="D8">
+        <v>0.03950083191124201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.000380929548886266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005598235241699671</v>
+      </c>
+      <c r="C9">
+        <v>0.07182733562574921</v>
+      </c>
+      <c r="D9">
+        <v>0.07431360968092471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001695220351587811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.003266857685200719</v>
+      </c>
+      <c r="C10">
+        <v>0.05213250976302893</v>
+      </c>
+      <c r="D10">
+        <v>-0.1865692527773539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0009597990089385895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006035817145021109</v>
+      </c>
+      <c r="C11">
+        <v>0.08032884652134178</v>
+      </c>
+      <c r="D11">
+        <v>0.06522338560035593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0005091420171174166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004565923373747377</v>
+      </c>
+      <c r="C12">
+        <v>0.06532312039782462</v>
+      </c>
+      <c r="D12">
+        <v>0.0493511196894279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002247418048596495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008858380315606549</v>
+      </c>
+      <c r="C13">
+        <v>0.07077919463758797</v>
+      </c>
+      <c r="D13">
+        <v>0.05741453668060804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00166103276499873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007706771482534711</v>
+      </c>
+      <c r="C14">
+        <v>0.04289616922444127</v>
+      </c>
+      <c r="D14">
+        <v>0.01201140509445255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001357651757703585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005888938052168212</v>
+      </c>
+      <c r="C15">
+        <v>0.040716621467051</v>
+      </c>
+      <c r="D15">
+        <v>0.02928099152904744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0003085611513544653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005360878981106399</v>
+      </c>
+      <c r="C16">
+        <v>0.06491185526382322</v>
+      </c>
+      <c r="D16">
+        <v>0.0567741162633992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002342363987898046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008605226612742571</v>
+      </c>
+      <c r="C20">
+        <v>0.0641750795701886</v>
+      </c>
+      <c r="D20">
+        <v>0.05269568235292403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005371852022438739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009385114461319122</v>
+      </c>
+      <c r="C21">
+        <v>0.02011489275001647</v>
+      </c>
+      <c r="D21">
+        <v>0.04100586952443859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01900503312353013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006727340093731142</v>
+      </c>
+      <c r="C22">
+        <v>0.08820770918982301</v>
+      </c>
+      <c r="D22">
+        <v>0.1242973333555362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01864987532472874</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006419622460872892</v>
+      </c>
+      <c r="C23">
+        <v>0.08858893025185792</v>
+      </c>
+      <c r="D23">
+        <v>0.1254064249783696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00134720428346879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005880020382081897</v>
+      </c>
+      <c r="C24">
+        <v>0.07714545340951033</v>
+      </c>
+      <c r="D24">
+        <v>0.06701419222961279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002951690742603268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003329994019592635</v>
+      </c>
+      <c r="C25">
+        <v>0.07856984269906923</v>
+      </c>
+      <c r="D25">
+        <v>0.06525955019558141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001518634621031184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003532428753420456</v>
+      </c>
+      <c r="C26">
+        <v>0.03902242719622284</v>
+      </c>
+      <c r="D26">
+        <v>0.02405535156791584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006567783972186617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001922107486812995</v>
+      </c>
+      <c r="C28">
+        <v>0.1029552204813062</v>
+      </c>
+      <c r="D28">
+        <v>-0.3260968086484775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009365845357372427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003004598917237938</v>
+      </c>
+      <c r="C29">
+        <v>0.04723017318992827</v>
+      </c>
+      <c r="D29">
+        <v>0.01225786213375559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002276120011169778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009682488713956782</v>
+      </c>
+      <c r="C30">
+        <v>0.141533983934752</v>
+      </c>
+      <c r="D30">
+        <v>0.109175563273552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0022449408562648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006451133829078752</v>
+      </c>
+      <c r="C31">
+        <v>0.04361244584410803</v>
+      </c>
+      <c r="D31">
+        <v>0.03241516927667717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003703500866864902</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004007251453740667</v>
+      </c>
+      <c r="C32">
+        <v>0.03981825331346157</v>
+      </c>
+      <c r="D32">
+        <v>0.02041279320771065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0004155458275000707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009002947016467188</v>
+      </c>
+      <c r="C33">
+        <v>0.09005748557397683</v>
+      </c>
+      <c r="D33">
+        <v>0.06405675701844345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001422566220871556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004262475103905248</v>
+      </c>
+      <c r="C34">
+        <v>0.05800576754564585</v>
+      </c>
+      <c r="D34">
+        <v>0.05853384534696973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002327012105060829</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005414676489738935</v>
+      </c>
+      <c r="C35">
+        <v>0.04066940945549402</v>
+      </c>
+      <c r="D35">
+        <v>0.01678007761787061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004492231131957065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001358939930717098</v>
+      </c>
+      <c r="C36">
+        <v>0.02522982793723243</v>
+      </c>
+      <c r="D36">
+        <v>0.02438938820598999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002843768618275205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009094808958380995</v>
+      </c>
+      <c r="C38">
+        <v>0.04090177658969717</v>
+      </c>
+      <c r="D38">
+        <v>0.01124649964004821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01081160142752569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001623922396459443</v>
+      </c>
+      <c r="C39">
+        <v>0.1117781987260891</v>
+      </c>
+      <c r="D39">
+        <v>0.08087754239956436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.002970036070609097</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003481430587795453</v>
+      </c>
+      <c r="C40">
+        <v>0.09107883470110298</v>
+      </c>
+      <c r="D40">
+        <v>0.01646937209921961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002437294576495944</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00752375263068327</v>
+      </c>
+      <c r="C41">
+        <v>0.0411268661240019</v>
+      </c>
+      <c r="D41">
+        <v>0.04098080650385676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001597065667714061</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00396008256227851</v>
+      </c>
+      <c r="C43">
+        <v>0.05403989370510114</v>
+      </c>
+      <c r="D43">
+        <v>0.02914737685556957</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.006497819453758242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002750383729000475</v>
+      </c>
+      <c r="C44">
+        <v>0.1050490529196851</v>
+      </c>
+      <c r="D44">
+        <v>0.06869663007036866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001091623094370407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00174214263423987</v>
+      </c>
+      <c r="C46">
+        <v>0.03297184392712977</v>
+      </c>
+      <c r="D46">
+        <v>0.03415522937275766</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0006626989935009026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002466089661629935</v>
+      </c>
+      <c r="C47">
+        <v>0.0354003507810706</v>
+      </c>
+      <c r="D47">
+        <v>0.02248437962327245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004032954019675161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006948677649803363</v>
+      </c>
+      <c r="C48">
+        <v>0.03284905917329511</v>
+      </c>
+      <c r="D48">
+        <v>0.03371124370309327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.00479345396790004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01752681224453475</v>
+      </c>
+      <c r="C49">
+        <v>0.1861765183519203</v>
+      </c>
+      <c r="D49">
+        <v>0.007722054781983388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009347666448250088</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003648984373812571</v>
+      </c>
+      <c r="C50">
+        <v>0.04345451912149088</v>
+      </c>
+      <c r="D50">
+        <v>0.04056689878669404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003719207645464901</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00435715585507467</v>
+      </c>
+      <c r="C51">
+        <v>0.02689707035634499</v>
+      </c>
+      <c r="D51">
+        <v>0.0232103933313757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.00874696435139825</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02212782227321092</v>
+      </c>
+      <c r="C53">
+        <v>0.171650216353406</v>
+      </c>
+      <c r="D53">
+        <v>0.01849586232643504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003949052495115687</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009611640874485534</v>
+      </c>
+      <c r="C54">
+        <v>0.05674616212890331</v>
+      </c>
+      <c r="D54">
+        <v>0.04220290058585995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001723761866268826</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01018054592745144</v>
+      </c>
+      <c r="C55">
+        <v>0.1088440542436301</v>
+      </c>
+      <c r="D55">
+        <v>0.03601132402987064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.009396784645093754</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02148390122578185</v>
+      </c>
+      <c r="C56">
+        <v>0.1744204223425268</v>
+      </c>
+      <c r="D56">
+        <v>0.01416083807214222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003678512902816211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01898148697392133</v>
+      </c>
+      <c r="C58">
+        <v>0.1064728465612773</v>
+      </c>
+      <c r="D58">
+        <v>0.06558390436745008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002238998296272408</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01002894604325253</v>
+      </c>
+      <c r="C59">
+        <v>0.1678868432502721</v>
+      </c>
+      <c r="D59">
+        <v>-0.3461735586993482</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008117148139247226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02588924869608527</v>
+      </c>
+      <c r="C60">
+        <v>0.2238403951037864</v>
+      </c>
+      <c r="D60">
+        <v>0.01675514998311148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009928085539540636</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001715094953452414</v>
+      </c>
+      <c r="C61">
+        <v>0.09376973904551666</v>
+      </c>
+      <c r="D61">
+        <v>0.0594488172117339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1483481401658222</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1510644268527282</v>
+      </c>
+      <c r="C62">
+        <v>0.1003950180120191</v>
+      </c>
+      <c r="D62">
+        <v>0.01816575946930592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001740804591816128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006807992929819979</v>
+      </c>
+      <c r="C63">
+        <v>0.05358100880367091</v>
+      </c>
+      <c r="D63">
+        <v>0.03351615777514055</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.00994573723107019</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01687162488202713</v>
+      </c>
+      <c r="C64">
+        <v>0.1062502488098803</v>
+      </c>
+      <c r="D64">
+        <v>0.05527537380943697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008970089143272519</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0181177473045811</v>
+      </c>
+      <c r="C65">
+        <v>0.1205063445702788</v>
+      </c>
+      <c r="D65">
+        <v>0.02747433869550253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.0007352388978437098</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01336342075488249</v>
+      </c>
+      <c r="C66">
+        <v>0.1591476067701599</v>
+      </c>
+      <c r="D66">
+        <v>0.1132425611754101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006254935683517452</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.015656892514228</v>
+      </c>
+      <c r="C67">
+        <v>0.07346130983800024</v>
+      </c>
+      <c r="D67">
+        <v>0.02131132811784594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004084512876572604</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0007047531510618289</v>
+      </c>
+      <c r="C68">
+        <v>0.08482546398879359</v>
+      </c>
+      <c r="D68">
+        <v>-0.2584114742337874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0002324192446050419</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006519962455151091</v>
+      </c>
+      <c r="C69">
+        <v>0.05285966662574829</v>
+      </c>
+      <c r="D69">
+        <v>0.03724974506528171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.00128903591531527</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002476917528929074</v>
+      </c>
+      <c r="C70">
+        <v>0.007826473998900721</v>
+      </c>
+      <c r="D70">
+        <v>-0.001421571436215285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0004000395125113381</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005226917379567003</v>
+      </c>
+      <c r="C71">
+        <v>0.08933217954906508</v>
+      </c>
+      <c r="D71">
+        <v>-0.3019222469678026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004398927904993465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01784061863170153</v>
+      </c>
+      <c r="C72">
+        <v>0.1581312269660973</v>
+      </c>
+      <c r="D72">
+        <v>0.007049426580770963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01109136455628789</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03247739359858324</v>
+      </c>
+      <c r="C73">
+        <v>0.2807832471537678</v>
+      </c>
+      <c r="D73">
+        <v>0.05095756882949221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004971368445151583</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002287888142582733</v>
+      </c>
+      <c r="C74">
+        <v>0.102401115426594</v>
+      </c>
+      <c r="D74">
+        <v>0.03325549735997491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0004137207727152271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.011491330125924</v>
+      </c>
+      <c r="C75">
+        <v>0.1207394270337731</v>
+      </c>
+      <c r="D75">
+        <v>0.02743257019835408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01210308073030184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.022917875591519</v>
+      </c>
+      <c r="C76">
+        <v>0.1463378052311013</v>
+      </c>
+      <c r="D76">
+        <v>0.05731343889035682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.008270211305120347</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02150471068554882</v>
+      </c>
+      <c r="C77">
+        <v>0.1115227232482112</v>
+      </c>
+      <c r="D77">
+        <v>0.05666012563643161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.006138142095275452</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01475904140760725</v>
+      </c>
+      <c r="C78">
+        <v>0.09925627851475441</v>
+      </c>
+      <c r="D78">
+        <v>0.08163233487525456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02769327533464451</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0393499405399198</v>
+      </c>
+      <c r="C79">
+        <v>0.1574331267495439</v>
+      </c>
+      <c r="D79">
+        <v>0.0301510242509667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006453174512319063</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009626208140859916</v>
+      </c>
+      <c r="C80">
+        <v>0.03989122300260117</v>
+      </c>
+      <c r="D80">
+        <v>0.03105557273645335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005110435601269148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01638936753072892</v>
+      </c>
+      <c r="C81">
+        <v>0.1306353818969179</v>
+      </c>
+      <c r="D81">
+        <v>0.03767212952044863</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007883159423083274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01989562764256419</v>
+      </c>
+      <c r="C82">
+        <v>0.1365927909157597</v>
+      </c>
+      <c r="D82">
+        <v>0.03685730999438616</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004205204100496782</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01234991712261933</v>
+      </c>
+      <c r="C83">
+        <v>0.06442412850436854</v>
+      </c>
+      <c r="D83">
+        <v>0.0448273402480436</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004301452589556074</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006487080131099335</v>
+      </c>
+      <c r="C84">
+        <v>0.03457765855498088</v>
+      </c>
+      <c r="D84">
+        <v>0.01183321171465388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0188815042577284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02946214268391376</v>
+      </c>
+      <c r="C85">
+        <v>0.123417055511354</v>
+      </c>
+      <c r="D85">
+        <v>0.03897787477920946</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002914580260170956</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003799895071723553</v>
+      </c>
+      <c r="C86">
+        <v>0.05097345196369823</v>
+      </c>
+      <c r="D86">
+        <v>0.02800036458269702</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001344861012038111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01144009433392999</v>
+      </c>
+      <c r="C87">
+        <v>0.1284086979554837</v>
+      </c>
+      <c r="D87">
+        <v>0.074918155154448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.00878725450283338</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00298324830434744</v>
+      </c>
+      <c r="C88">
+        <v>0.06335458760519679</v>
+      </c>
+      <c r="D88">
+        <v>0.03105097902899244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01089238156501829</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002364460826447189</v>
+      </c>
+      <c r="C89">
+        <v>0.135023767135662</v>
+      </c>
+      <c r="D89">
+        <v>-0.3138996355297923</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001412865028282707</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006381796352409599</v>
+      </c>
+      <c r="C90">
+        <v>0.1165249227337124</v>
+      </c>
+      <c r="D90">
+        <v>-0.3120263679779696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002563407724302056</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01130813777109605</v>
+      </c>
+      <c r="C91">
+        <v>0.09973085185785117</v>
+      </c>
+      <c r="D91">
+        <v>0.0277322086027375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.004932406846329155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004683934073322529</v>
+      </c>
+      <c r="C92">
+        <v>0.1294711326934873</v>
+      </c>
+      <c r="D92">
+        <v>-0.3269581256475123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001776793282430161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003674049961567749</v>
+      </c>
+      <c r="C93">
+        <v>0.1043217992851708</v>
+      </c>
+      <c r="D93">
+        <v>-0.3002160084210539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0107956478310155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02264192980144121</v>
+      </c>
+      <c r="C94">
+        <v>0.1414017928296778</v>
+      </c>
+      <c r="D94">
+        <v>0.05423101720386243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006955609177772921</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01649221571000371</v>
+      </c>
+      <c r="C95">
+        <v>0.120629633698136</v>
+      </c>
+      <c r="D95">
+        <v>0.0662346447092137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01759618754857473</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03788763646513325</v>
+      </c>
+      <c r="C97">
+        <v>0.2250996278184722</v>
+      </c>
+      <c r="D97">
+        <v>-0.0005117973337738899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01243054495516664</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03933966443669483</v>
+      </c>
+      <c r="C98">
+        <v>0.2604801510144827</v>
+      </c>
+      <c r="D98">
+        <v>0.02544725978456382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9867548180262764</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9807080545286013</v>
+      </c>
+      <c r="C99">
+        <v>-0.1230990083220154</v>
+      </c>
+      <c r="D99">
+        <v>-0.02408285667798099</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.000921985054218709</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002982508921302795</v>
+      </c>
+      <c r="C101">
+        <v>0.04734242425255807</v>
+      </c>
+      <c r="D101">
+        <v>0.01273980928517658</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
